--- a/Updated_Schedule_with_1_Hour_Intervals.xlsx
+++ b/Updated_Schedule_with_1_Hour_Intervals.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DDDC139-14F3-4754-AD6A-6048F8792F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B230D290-B762-456B-BFFD-8BD481F193A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2325" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="310" windowWidth="18630" windowHeight="9540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
   <si>
     <t>Time</t>
   </si>
@@ -140,13 +156,432 @@
   </si>
   <si>
     <t>Final Review / Plan for Next Day</t>
+  </si>
+  <si>
+    <t>زمان</t>
+  </si>
+  <si>
+    <t>فعالیت</t>
+  </si>
+  <si>
+    <t>۸:۰۰ - ۸:۳۰</t>
+  </si>
+  <si>
+    <t>نرمش سبک یا مدیتیشن</t>
+  </si>
+  <si>
+    <t>۸:۳۰ - ۹:۰۰</t>
+  </si>
+  <si>
+    <t>صرف صبحانه سالم</t>
+  </si>
+  <si>
+    <t>۹:۰۰ - ۱۰:۳۰</t>
+  </si>
+  <si>
+    <t>ناهار و استراحت</t>
+  </si>
+  <si>
+    <t>۲۰:۳۰ - ۲۱:۳۰</t>
+  </si>
+  <si>
+    <r>
+      <t>جلسه اول ترید (1.5 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> تحلیل و معاملات (جلسه لندن)</t>
+    </r>
+  </si>
+  <si>
+    <t>۱۰:۳۰ - ۱۱:۰۰</t>
+  </si>
+  <si>
+    <r>
+      <t>آموزش زبان:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> تمرین گرامر و واژگان</t>
+    </r>
+  </si>
+  <si>
+    <t>۱۱:۰۰ - ۱۲:۰۰</t>
+  </si>
+  <si>
+    <r>
+      <t>آموزش هوش مصنوعی:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> معرفی مفاهیم پایه و الگوریتم‌ها</t>
+    </r>
+  </si>
+  <si>
+    <t>۱۲:۰۰ - ۱۴:۰۰</t>
+  </si>
+  <si>
+    <r>
+      <t>جلسه دوم ترید (2 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> ادامه تحلیل و تنظیم استراتژی</t>
+    </r>
+  </si>
+  <si>
+    <t>۱۴:۰۰ - ۱۴:۳۰</t>
+  </si>
+  <si>
+    <r>
+      <t>آموزش زبان:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> گوش دادن به پادکست یا ویدئوهای آموزشی</t>
+    </r>
+  </si>
+  <si>
+    <t>۱۴:۳۰ - ۱۵:۳۰</t>
+  </si>
+  <si>
+    <t>۱۵:۳۰ - ۱۷:۳۰</t>
+  </si>
+  <si>
+    <r>
+      <t>جلسه سوم ترید (2 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> مرور بازار نیویورک</t>
+    </r>
+  </si>
+  <si>
+    <t>۱۷:۳۰ - ۱۸:۰۰</t>
+  </si>
+  <si>
+    <t>میان‌وعده و استراحت</t>
+  </si>
+  <si>
+    <t>۱۸:۰۰ - ۲۰:۰۰</t>
+  </si>
+  <si>
+    <r>
+      <t>جلسه چهارم ترید (2 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> ارزیابی و معاملات پایانی</t>
+    </r>
+  </si>
+  <si>
+    <t>۲۰:۰۰ - ۲۰:۳۰</t>
+  </si>
+  <si>
+    <r>
+      <t>آموزش زبان:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> مکالمه یا نوشتن جملات تمرینی</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>آموزش کریپتو (cryptocurrency):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> مفاهیم بنیادی و تحلیل بازار کریپتو</t>
+    </r>
+  </si>
+  <si>
+    <t>۲۱:۳۰ - ۲۲:۰۰</t>
+  </si>
+  <si>
+    <r>
+      <t>آموزش هوش مصنوعی:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> تمرینات عملی و شبیه‌سازی الگوریتم‌ها</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>جلسه اول ترید (1.5 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> تحلیل و معاملات</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>آموزش زبان (0.5 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> تمرین گرامر و واژگان</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>آموزش هوش مصنوعی (1 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> مفاهیم پایه و الگوریتم‌ها</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>جلسه دوم ترید (2 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> ادامه تحلیل و استراتژی</t>
+    </r>
+  </si>
+  <si>
+    <t>۱۴:۰۰ - ۱۵:۰۰</t>
+  </si>
+  <si>
+    <t>۱۵:۰۰ - ۱۷:۰۰</t>
+  </si>
+  <si>
+    <r>
+      <t>جلسه سوم ترید (2 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> بررسی بازار و ارزیابی معاملات</t>
+    </r>
+  </si>
+  <si>
+    <t>۱۷:۰۰ - ۱۷:۳۰</t>
+  </si>
+  <si>
+    <t>استراحت یا پیاده‌روی</t>
+  </si>
+  <si>
+    <t>۱۸:۰۰ - ۱۹:۳۰</t>
+  </si>
+  <si>
+    <r>
+      <t>جلسه چهارم ترید (1.5 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> تحلیل پایانی و جمع‌بندی بازار</t>
+    </r>
+  </si>
+  <si>
+    <t>۱۹:۳۰ - ۲۰:۰۰</t>
+  </si>
+  <si>
+    <t>۲۰:۰۰ - ۲۱:۰۰</t>
+  </si>
+  <si>
+    <r>
+      <t>آموزش کریپتو (1 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> مفاهیم کریپتو و تحلیل بازار</t>
+    </r>
+  </si>
+  <si>
+    <t>۲۱:۰۰ - ۲۲:۰۰</t>
+  </si>
+  <si>
+    <r>
+      <t>آموزش هوش مصنوعی (1 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> پروژه‌ها و مدل‌های عملی</t>
+    </r>
+  </si>
+  <si>
+    <t>۲۲:۰۰ - ۲۲:۳۰</t>
+  </si>
+  <si>
+    <r>
+      <t>آموزش زبان (0.5 ساعت):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> تمرین مکالمه و تقویت مهارت‌ها</t>
+    </r>
+  </si>
+  <si>
+    <t>8:00 - 8:30</t>
+  </si>
+  <si>
+    <t>8:30 - 9:00</t>
+  </si>
+  <si>
+    <t>9:00 - 10:30</t>
+  </si>
+  <si>
+    <t>جلسه اول ترید (1.5 ساعت): تحلیل و معاملات</t>
+  </si>
+  <si>
+    <t>10:30 - 11:00</t>
+  </si>
+  <si>
+    <t>آموزش زبان (0.5 ساعت): تمرین گرامر و واژگان</t>
+  </si>
+  <si>
+    <t>آموزش هوش مصنوعی (1 ساعت): مفاهیم پایه و الگوریتم‌ها</t>
+  </si>
+  <si>
+    <t>12:00 - 14:00</t>
+  </si>
+  <si>
+    <t>جلسه دوم ترید (2 ساعت): ادامه تحلیل و استراتژی</t>
+  </si>
+  <si>
+    <t>14:00 - 15:00</t>
+  </si>
+  <si>
+    <t>15:00 - 17:00</t>
+  </si>
+  <si>
+    <t>جلسه سوم ترید (2 ساعت): بررسی بازار و ارزیابی معاملات</t>
+  </si>
+  <si>
+    <t>17:00 - 17:30</t>
+  </si>
+  <si>
+    <t>18:00 - 19:30</t>
+  </si>
+  <si>
+    <t>جلسه چهارم ترید (1.5 ساعت): تحلیل پایانی و جمع‌بندی بازار</t>
+  </si>
+  <si>
+    <t>19:30 - 20:00</t>
+  </si>
+  <si>
+    <t>20:00 - 21:00</t>
+  </si>
+  <si>
+    <t>آموزش کریپتو (1 ساعت): مفاهیم کریپتو و تحلیل بازار</t>
+  </si>
+  <si>
+    <t>21:00 - 22:00</t>
+  </si>
+  <si>
+    <t>آموزش هوش مصنوعی (1 ساعت): پروژه‌ها و مدل‌های عملی</t>
+  </si>
+  <si>
+    <t>22:00 - 22:30</t>
+  </si>
+  <si>
+    <t>آموزش فارکس (0.5 ساعت): تحلیل و استراتژی در بازار فارکس</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +597,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -194,17 +655,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -761,4 +1292,423 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91714DD8-D022-41BF-AC5E-1F27C0A46CFF}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F77D27-00A3-45D7-9980-A77881346F2B}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE6746F-2AC0-43E5-89EE-22F791BC86C2}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>